--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1809091.914881489</v>
+        <v>1827466.604347609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9451499147351</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.56970526848196</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40.91460566762571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>139.2886326231158</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.1077950160936</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>334.8830173579004</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.915442650592</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.2713935802971</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>180.8086440997608</v>
+        <v>151.5236087740393</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26.45288916151095</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>4.385991991200942</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>37.3499507518146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,16 +1582,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>60.54139430664161</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>28.21685351626686</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>119.8741971385901</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.063564612257</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6270222661111</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.6165735777235</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>54.27764738768712</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>147.7402507536361</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.07819445198081</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>93.14366512759463</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2968,7 +2968,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100.6429089205996</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>49.45598643312694</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.3721528197054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>172.8413915615914</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>158.9482414477864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.38162151975428</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.2874061841565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>73.94002079792007</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>88.66218518272632</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.641263708175</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.678746767763</v>
+        <v>1681.057459319287</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4130481610125</v>
+        <v>1322.791760712536</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>937.0035081142921</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>526.0176033246846</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>108.0537952228715</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.241103772296</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>140.9273907659833</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>558.0164765518583</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>268.5993065148977</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962231</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1606.946621408919</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.301830724558</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>71.02928752803314</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>71.02928752803314</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691494</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691494</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2283.307919822723</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="U8" t="n">
-        <v>2283.307919822723</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.245032479153</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.2948950230958</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="C10" t="n">
-        <v>240.3587120951888</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="D10" t="n">
-        <v>240.3587120951888</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E10" t="n">
-        <v>240.3587120951888</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>240.3587120951888</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
         <v>235.9284171545818</v>
@@ -4960,7 +4960,7 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230958</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230958</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230958</v>
+        <v>409.5384547146244</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,16 +5051,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147083</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615134</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.1196361220962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C13" t="n">
-        <v>303.1196361220962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D13" t="n">
-        <v>303.1196361220962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>303.1196361220962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570741</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201135</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220962</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,7 +5309,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.0269196489063</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>423.0269196489063</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>423.0269196489063</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471227</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119732</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035284</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035284</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.921157035284</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>933.236668829397</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924364</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X16" t="n">
-        <v>643.8194987924364</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.0269196489063</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>3276.77103143352</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>4081.182609697671</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>534.3905543375959</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>534.3905543375959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>534.3905543375959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>386.4774607552027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1323.168986627976</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X19" t="n">
-        <v>755.183133481126</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>534.3905543375959</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1228.621952709515</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1228.621952709515</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>939.4933139230729</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>939.4933139230729</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>650.0761438861124</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>650.0761438861124</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425823</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3959.296496892129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4189.868928062645</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4020.932745134738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3870.816105722402</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3722.903012140009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3722.903012140009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3554.72769045983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929845</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929845</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892884</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>4371.517392892884</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>4371.517392892884</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,31 +6212,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>489.1545025205813</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>320.2183195926744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>320.2183195926744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>320.2183195926744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>320.2183195926744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>152.0429979124951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1349.683694039078</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1125.898278828584</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>836.769640042142</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488384</v>
+        <v>836.769640042142</v>
       </c>
       <c r="W28" t="n">
-        <v>898.7925182488384</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X28" t="n">
-        <v>670.8029673508211</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>670.8029673508211</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4206.132591937264</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="C31" t="n">
-        <v>4037.196409009357</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>4037.196409009357</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>3889.283315426963</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426963</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4525.994054365623</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>4525.994054365623</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>4525.994054365623</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y31" t="n">
-        <v>4305.201475222093</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1397.256766597701</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1397.256766597701</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1108.128127811259</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1108.128127811259</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>818.7109577742983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,13 +6971,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7020,22 +7020,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>806.1650729342607</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1113.485206214222</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.347833878255</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3922.894617924885</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>3753.958434996978</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>3753.958434996978</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414585</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1249.040718621811</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V37" t="n">
-        <v>4382.384669597912</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W37" t="n">
-        <v>4092.967499560951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X37" t="n">
-        <v>4092.967499560951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>3922.894617924885</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>4250.687701766859</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4558.069177677559</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4763.091658459769</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3777.748724048911</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C40" t="n">
-        <v>3777.748724048911</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D40" t="n">
-        <v>3777.748724048911</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048911</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048911</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1124.408996269827</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>835.2803574833852</v>
       </c>
       <c r="V40" t="n">
-        <v>4347.940519017357</v>
+        <v>835.2803574833852</v>
       </c>
       <c r="W40" t="n">
-        <v>4187.386739777168</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="X40" t="n">
-        <v>3959.397188879151</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="Y40" t="n">
-        <v>3959.397188879151</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,7 +7412,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>2315.738453580939</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P42" t="n">
-        <v>2520.760934363149</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.7175987609741</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C43" t="n">
-        <v>506.7814158330672</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D43" t="n">
-        <v>356.6647764207315</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>936.1217907834367</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W43" t="n">
-        <v>1085.355614489231</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X43" t="n">
-        <v>857.3660635912138</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y43" t="n">
-        <v>857.3660635912138</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,10 +7637,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>2032.925401907738</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2312.465467126435</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>973.0255547109412</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C46" t="n">
-        <v>804.0893717830343</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706985</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>490.4973112873907</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>490.4973112873907</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>322.3219896072113</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>171.9039811551546</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7837,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X46" t="n">
-        <v>1154.674019541181</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.674019541181</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>297.246643576102</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>199.6230805871078</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>145.2351313103792</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>392.1113620226428</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>80.5002137261522</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6230805871087</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>52.49733361305235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>274.365749697064</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>28.12263706262911</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.83804904622824</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.14409596997041</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.0710972711166</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>225.9816040299494</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>118.2171091303023</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>25.54685088434113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>23.93099889297633</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>2.430003851120574</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.29378771749217</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>54.29725478981263</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.636180979849</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>50.18055922996717</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.75378572995649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>74.1031559710332</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,22 +25123,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>97.27790106300365</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>172.0915746252623</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.21250053238938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>48.70616949679786</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>127.5747568888046</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25804,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>148.539188463849</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.2355921524345</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.47922466635191</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>137.0474702063108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846861</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846861</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117846</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590219</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="N2" t="n">
-        <v>508337.7776590213</v>
-      </c>
       <c r="O2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316168.9053514381</v>
+        <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>273798.9738631067</v>
+        <v>276327.2950265487</v>
       </c>
       <c r="D6" t="n">
-        <v>273798.9738631065</v>
+        <v>276327.295026549</v>
       </c>
       <c r="E6" t="n">
-        <v>-140147.9495568906</v>
+        <v>-138113.1303188931</v>
       </c>
       <c r="F6" t="n">
-        <v>385012.0869200061</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="G6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580029</v>
       </c>
       <c r="H6" t="n">
-        <v>385012.0869200059</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="I6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="J6" t="n">
-        <v>208588.8677274129</v>
+        <v>210623.6869654098</v>
       </c>
       <c r="K6" t="n">
-        <v>385012.0869200056</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="L6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="M6" t="n">
-        <v>250211.0716861685</v>
+        <v>252245.8909241653</v>
       </c>
       <c r="N6" t="n">
-        <v>385012.0869200055</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="O6" t="n">
-        <v>385012.0869200056</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="P6" t="n">
-        <v>385012.086920006</v>
+        <v>387046.9061580026</v>
       </c>
     </row>
   </sheetData>
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.98522015752673</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>270.3530674958752</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>94.05101612471252</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>112.8490107007122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.626046647387</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.38987441310712</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>139.2554461912031</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874004</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35.63967625789704</v>
+        <v>64.92471158361849</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>153.3790910204264</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.92381026785</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>546.5043485321264</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.309841178976</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>510.0474576375741</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>394.4928362664036</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>702.5357390731091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>362.8639159672604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>448.880785543133</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37388,25 +37388,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>523.6234546530883</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>310.4863393037373</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37783,7 +37783,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.8510818313024</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>226.2375109014951</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1827466.604347609</v>
+        <v>1902996.274012414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>53.56970526848196</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>85.72834075468934</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.91460566762571</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>86.53181234590733</v>
       </c>
       <c r="C5" t="n">
-        <v>334.8830173579004</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.0992346450739</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2713935802971</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>110.2530958569708</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>151.5236087740393</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.45288916151095</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>149.5016744085787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>60.54139430664161</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>48.86977494378597</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.9898110906269</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>201.1710516606679</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.063564612257</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>7.101909464869482</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.3458132526256</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.64843562452468</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.7402507536361</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.14366512759463</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.92398245200164</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.8434257527674</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>49.45598643312694</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>172.8413915615914</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>55.21533678567033</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.38162151975428</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>73.94002079792007</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2050.019976259699</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.057459319287</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1322.791760712536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>937.0035081142921</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>526.0176033246846</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>108.0537952228715</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y2" t="n">
-        <v>2050.019976259699</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>140.9273907659833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>322.5758555962231</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>322.5758555962231</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408919</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,46 +4573,46 @@
         <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473041</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.546461473041</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750363</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750363</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691494</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691494</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2312.888763586079</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2312.888763586079</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1981.825876242509</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.057220972395</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1255.591462711315</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>865.4521307355029</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524922</v>
+        <v>250.6112985851278</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524922</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146244</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146244</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146244</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146244</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146244</v>
+        <v>250.6112985851278</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5057,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
         <v>1198.760773441947</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,25 +5293,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555207</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>576.7084220047017</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
         <v>527.3450129705744</v>
@@ -5431,19 +5433,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557903</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1323.168986627976</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1099.383571417482</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>810.2549326310402</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>555.5704444251534</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,40 +5740,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.007103038344</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="C22" t="n">
-        <v>675.007103038344</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D22" t="n">
-        <v>524.8904636260082</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E22" t="n">
-        <v>524.8904636260082</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F22" t="n">
-        <v>524.8904636260082</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>4029.771759570624</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>4029.771759570624</v>
       </c>
       <c r="X22" t="n">
-        <v>675.007103038344</v>
+        <v>4029.771759570624</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.007103038344</v>
+        <v>3808.979180427094</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,7 +6025,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6178,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>3686.322319899658</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>3517.386136971751</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1349.683694039078</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1125.898278828584</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>836.769640042142</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>836.769640042142</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W28" t="n">
-        <v>836.769640042142</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X28" t="n">
-        <v>836.769640042142</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.9770608986119</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.8146123150548</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X31" t="n">
-        <v>954.8146123150548</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y31" t="n">
-        <v>954.8146123150548</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6691,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1103.149457588814</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>814.0208188023719</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>559.336330596485</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>559.336330596485</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>559.336330596485</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.8104215925219</v>
+        <v>1089.278254829645</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1249.040718621811</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>959.9120798353694</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>705.2275916294825</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>415.8104215925219</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>415.8104215925219</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.8104215925219</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.8631874464246</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="C40" t="n">
-        <v>376.9270045185177</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T40" t="n">
-        <v>1124.408996269827</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>835.2803574833852</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V40" t="n">
-        <v>835.2803574833852</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W40" t="n">
-        <v>545.8631874464246</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="X40" t="n">
-        <v>545.8631874464246</v>
+        <v>3665.346469829004</v>
       </c>
       <c r="Y40" t="n">
-        <v>545.8631874464246</v>
+        <v>3609.573402368731</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1449.035844780373</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1225.250429569879</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>936.1217907834367</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>681.4373025775499</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>392.0201325405893</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>392.0201325405893</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,19 +7642,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.3465877976907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>638.4104048697839</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>638.4104048697839</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>490.4973112873907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>490.4973112873907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3219896072113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>171.9039811551546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503156</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208048</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>225.9816040299494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>97.5641877027832</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>23.93099889297633</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>17.41360169142686</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>2.430003851120574</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.0357338589585</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>14.14775521075197</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,13 +24420,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368768</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>50.18055922996717</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>74.1031559710332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>137.6235786063876</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>51.4033953458604</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>172.0915746252623</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>48.70616949679786</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>163.3693165664245</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542517</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>148.539188463849</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>36.47922466635191</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>888779.6832846861</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26316,16 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117846</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
@@ -26332,10 +26334,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
@@ -26344,16 +26346,16 @@
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="O2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>174490.7773218261</v>
+      </c>
+      <c r="C4" t="n">
         <v>174490.7773218262</v>
       </c>
-      <c r="C4" t="n">
-        <v>174490.7773218261</v>
-      </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26445,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="M4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
+        <v>276327.2950265489</v>
+      </c>
+      <c r="D6" t="n">
         <v>276327.2950265487</v>
       </c>
-      <c r="D6" t="n">
-        <v>276327.295026549</v>
-      </c>
       <c r="E6" t="n">
-        <v>-138113.1303188931</v>
+        <v>-138113.1303188933</v>
       </c>
       <c r="F6" t="n">
+        <v>387046.9061580028</v>
+      </c>
+      <c r="G6" t="n">
         <v>387046.9061580026</v>
-      </c>
-      <c r="G6" t="n">
-        <v>387046.9061580029</v>
       </c>
       <c r="H6" t="n">
         <v>387046.9061580026</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580028</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.6869654098</v>
+        <v>210623.68696541</v>
       </c>
       <c r="K6" t="n">
         <v>387046.9061580026</v>
@@ -26552,7 +26554,7 @@
         <v>387046.9061580027</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241653</v>
+        <v>252245.8909241657</v>
       </c>
       <c r="N6" t="n">
         <v>387046.9061580027</v>
@@ -26561,7 +26563,7 @@
         <v>387046.9061580027</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580026</v>
+        <v>387046.9061580025</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>270.3530674958752</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>242.0239177154456</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>94.05101612471252</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.0681335233685</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>296.2020293175732</v>
       </c>
       <c r="C5" t="n">
-        <v>30.38987441310712</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>11.18263959690381</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>35.43826180874004</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>244.4299457637121</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.92471158361849</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.3790910204264</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.74514669004913</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>384.987089538255</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37628,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523295</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1902996.274012414</v>
+        <v>1895979.259120704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>66.55727600108183</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>85.72834075468934</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>133.4548648132225</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>189.5968436493441</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.53181234590733</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>97.63529092888608</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>46.80807769362081</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.0992346450739</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>110.2530958569708</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>218.1059050110863</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5016744085787</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>14.53682488057946</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.86977494378597</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>79.06553162826584</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>161.2173728122517</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.1710516606679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>7.101909464869482</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>152.3458132526256</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>64.02545868683401</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>83.92398245200164</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>115.8434257527674</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="38">
@@ -3556,13 +3556,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.21533678567033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4188,13 +4188,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1245.141430890478</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>859.3531782922337</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>448.3672735026261</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2555.52611795812</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2555.52611795812</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4509,28 +4509,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>152.5644878091383</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287635</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>578.0123447940983</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>430.0992512117052</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>283.2093037137948</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1860.708406770827</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="C8" t="n">
-        <v>1860.708406770827</v>
+        <v>1039.174832796665</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>680.9091341899145</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>295.1208815916703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>288.1753808424668</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>274.2519767810577</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1794.737189801198</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.6112985851278</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.6112985851278</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1173.237495539745</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.8250614170374</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="C16" t="n">
-        <v>726.8250614170374</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="D16" t="n">
-        <v>576.7084220047017</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>177.0812648221705</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y16" t="n">
-        <v>726.8250614170374</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>407.9760161661656</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>260.0629225837724</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>260.0629225837724</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X19" t="n">
-        <v>468.5954956259884</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,34 +5746,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3627.330715596854</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596854</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596854</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4029.771759570624</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>4029.771759570624</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>4029.771759570624</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>3808.979180427094</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.4856756861153</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>699.5494927582084</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>549.4328533458727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>401.5197597634796</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>401.5197597634796</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659885</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.134140516355</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6262,13 +6262,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3686.322319899658</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C28" t="n">
-        <v>3517.386136971751</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771445</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873428</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729898</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.020508932908</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>3893.336020727022</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.6878657662453</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1103.149457588814</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>814.0208188023719</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>559.336330596485</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>559.336330596485</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>559.336330596485</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>559.336330596485</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,25 +6949,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.278254829645</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y37" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
@@ -7186,28 +7186,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929844</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U40" t="n">
-        <v>4148.020508932908</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>3893.336020727022</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>3893.336020727022</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>3665.346469829004</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7836,10 +7836,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
         <v>614.6238123952637</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>207.0107361778098</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>97.5641877027832</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>69.84829673927028</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.276195651125875</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.41360169142686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>245.0357338589585</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.14775521075197</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>81.39558933609723</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>137.6235786063876</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>51.4033953458604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="38">
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.3693165664245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542517</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
@@ -26334,10 +26334,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
@@ -26349,13 +26349,13 @@
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26444,7 +26444,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230234</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,19 +26496,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265489</v>
+        <v>276327.295026549</v>
       </c>
       <c r="D6" t="n">
         <v>276327.2950265487</v>
       </c>
       <c r="E6" t="n">
-        <v>-138113.1303188933</v>
+        <v>-139087.721578615</v>
       </c>
       <c r="F6" t="n">
-        <v>387046.9061580028</v>
+        <v>386072.314898281</v>
       </c>
       <c r="G6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.314898281</v>
       </c>
       <c r="H6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.314898281</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982811</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.68696541</v>
+        <v>209649.0957056881</v>
       </c>
       <c r="K6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="L6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.314898281</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241657</v>
+        <v>251271.2996644439</v>
       </c>
       <c r="N6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="O6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982808</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580025</v>
+        <v>386072.314898281</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,13 +26749,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>347.2268940197131</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>242.0239177154456</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>153.0681335233685</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.98780970275067</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2020293175732</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>316.1488790919089</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>120.5017245654301</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>11.18263959690381</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>244.4299457637121</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>105.8168677532708</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>17.74514669004913</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31287,7 +31287,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,7 +31299,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1895979.259120704</v>
+        <v>1900918.521969736</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.4106407312797</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>66.55727600108183</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>97.63529092888608</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.80807769362081</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>218.1059050110863</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.482788338502</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>119.5057742900017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.53682488057946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>79.06553162826584</v>
+        <v>140.0921306777566</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>19.68706854817731</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>161.2173728122517</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.90355835744664</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>64.02545868683401</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>63.37474724264533</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>10.45915033354384</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497228</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>1603.407129497228</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1245.141430890478</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>859.3531782922337</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>448.3672735026261</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583417</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5099885583417</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>159.5099885583417</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>159.5099885583417</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>152.5644878091383</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>198.0462038478543</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,10 +4591,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
@@ -4603,16 +4603,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982752</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064341</v>
+        <v>699.731258496553</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940983</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117052</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137948</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
         <v>235.9284171545819</v>
@@ -4725,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.137349737077</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1039.174832796665</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>680.9091341899145</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>295.1208815916703</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>288.1753808424668</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>274.2519767810577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.737189801198</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,16 +5120,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>514.936581693766</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>364.8199422814303</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>364.8199422814303</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>217.9299947835199</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1173.237495539745</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>884.1088567533034</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>884.1088567533034</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>594.6916867163428</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X13" t="n">
-        <v>594.6916867163428</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.6916867163428</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345.2565865023499</v>
+        <v>985.4001231459582</v>
       </c>
       <c r="C16" t="n">
-        <v>345.2565865023499</v>
+        <v>816.4639402180513</v>
       </c>
       <c r="D16" t="n">
-        <v>345.2565865023499</v>
+        <v>666.3473008057156</v>
       </c>
       <c r="E16" t="n">
-        <v>345.2565865023499</v>
+        <v>518.4342072233225</v>
       </c>
       <c r="F16" t="n">
-        <v>345.2565865023499</v>
+        <v>518.4342072233225</v>
       </c>
       <c r="G16" t="n">
-        <v>177.0812648221705</v>
+        <v>350.258885543143</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325897</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>526.9050513325897</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207829</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0926555785013</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0926555785013</v>
+        <v>285.278340966907</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9760161661656</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>260.0629225837724</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0629225837724</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X19" t="n">
-        <v>558.0926555785013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.0926555785013</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,10 +5776,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>943.2631727657036</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>774.3269898377968</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>624.210350425461</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>476.2972568430679</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>329.4073093451575</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>161.2319876649781</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>943.2631727657036</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,19 +7168,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="41">
@@ -7414,10 +7414,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7833,13 +7833,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
         <v>614.6238123952637</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>46.98779417337587</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>207.0107361778098</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>69.84829673927028</v>
+        <v>8.821697689779512</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.928404470035</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>5.276195651125875</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.59001010593094</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>81.39558933609723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>85.5390811248908</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>50.96659166316</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.8408432116525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>215.2505050554933</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117848</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117846</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
@@ -26334,10 +26334,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
@@ -26349,10 +26349,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,28 +26429,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
+        <v>276327.2950265491</v>
+      </c>
+      <c r="D6" t="n">
         <v>276327.295026549</v>
       </c>
-      <c r="D6" t="n">
-        <v>276327.2950265487</v>
-      </c>
       <c r="E6" t="n">
-        <v>-139087.721578615</v>
+        <v>-138210.5894448656</v>
       </c>
       <c r="F6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="G6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="H6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="I6" t="n">
-        <v>386072.3148982811</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="J6" t="n">
-        <v>209649.0957056881</v>
+        <v>210526.2278394376</v>
       </c>
       <c r="K6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="L6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="M6" t="n">
-        <v>251271.2996644439</v>
+        <v>252148.4317981933</v>
       </c>
       <c r="N6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="O6" t="n">
-        <v>386072.3148982808</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="P6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26761,19 +26761,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>241.3232009322009</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>347.2268940197131</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.98780970275067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>316.1488790919089</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>9.269126437646349</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>139.1330726458454</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.5017245654301</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>105.8168677532708</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,7 +27903,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.1320336449676</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>158.8578157762264</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31287,7 +31287,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,7 +31299,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
